--- a/biology/Médecine/Gabriel_Revault_d'Allonnes/Gabriel_Revault_d'Allonnes.xlsx
+++ b/biology/Médecine/Gabriel_Revault_d'Allonnes/Gabriel_Revault_d'Allonnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabriel_Revault_d%27Allonnes</t>
+          <t>Gabriel_Revault_d'Allonnes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Charles Revault d'Allonnes, né le 6 janvier 1872 à Montpellier et mort le 12 février 1949 à Roanne, est un psychiatre français et professeur agrégé de philosophie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriel_Revault_d%27Allonnes</t>
+          <t>Gabriel_Revault_d'Allonnes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabriel Revault d'Allonnes est le gendre de l'écrivain Jean Psichari (lui-même gendre de l'écrivain et historien Ernest Renan) puisqu'il se marie en 1906 à Henriette Psichari, femme de lettres[1] avec qui il aura le général Jean-Gabriel Revault d'Allonnes et le philosophe Olivier Revault d'Allonnes.
-Il est docteur en médecine et agrégé de philosophie en 1898. Il soutient une thèse de doctorat ès lettres devant la faculté des lettres de Paris en 1907[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel Revault d'Allonnes est le gendre de l'écrivain Jean Psichari (lui-même gendre de l'écrivain et historien Ernest Renan) puisqu'il se marie en 1906 à Henriette Psichari, femme de lettres avec qui il aura le général Jean-Gabriel Revault d'Allonnes et le philosophe Olivier Revault d'Allonnes.
+Il est docteur en médecine et agrégé de philosophie en 1898. Il soutient une thèse de doctorat ès lettres devant la faculté des lettres de Paris en 1907.
 Le concept de schème, réhabilité par Kant, a été introduit dans le champ de la psychologie dès 1914 par Gabriel Revault d'Allonnes, donc bien avant Piaget. Ce fait est largement méconnu. L'étude des schèmes, de leurs propriétés, de leur fonctionnalité dans la perception et l'action, la pensée et le raisonnement est considérablement étayée. Le schème est abordé dans le cadre de la vie quotidienne (culturelle et sociale) de l'enfant comme de l'adulte. Une théorie du développement du jeune enfant centrée sur l'évolution de la schématisation dans la vie et les activités quotidiennes ordinaires est esquissée, selon une approche très différente de celle qu'en fera ultérieurement Piaget. 
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabriel_Revault_d%27Allonnes</t>
+          <t>Gabriel_Revault_d'Allonnes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Ouvrages et Articles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1900. (avec Frédéric Rauh). Psychologie appliquée à la morale et à l'éducation. Paris ; Hachette et Cie.
 1905. Rôle des sensations internes dans les émotions et dans la perception de la durée, Revue Philosophique de la France et de l'Étranger, LX, 592-623.
